--- a/Data/aearep-595/candidatepackages.xlsx
+++ b/Data/aearep-595/candidatepackages.xlsx
@@ -31,10 +31,10 @@
     <t>white</t>
   </si>
   <si>
+    <t>dummies</t>
+  </si>
+  <si>
     <t>find</t>
-  </si>
-  <si>
-    <t>dummies</t>
   </si>
   <si>
     <t>pre</t>
@@ -142,7 +142,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -154,7 +154,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -166,10 +166,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="C4">
-        <v>0.22513262927532196</v>
+        <v>0.21719008684158325</v>
       </c>
       <c r="D4"/>
     </row>
@@ -178,10 +178,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C5">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D5"/>
     </row>
@@ -190,10 +190,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C6">
-        <v>0.29144561290740967</v>
+        <v>0.28925618529319763</v>
       </c>
       <c r="D6"/>
     </row>
@@ -202,10 +202,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1077</v>
+        <v>978</v>
       </c>
       <c r="C7">
-        <v>0.35709547996520996</v>
+        <v>0.32330578565597534</v>
       </c>
       <c r="D7"/>
     </row>
@@ -214,10 +214,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C8">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D8"/>
     </row>
@@ -226,10 +226,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1965</v>
+        <v>1865</v>
       </c>
       <c r="C9">
-        <v>0.65152519941329956</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D9"/>
     </row>
@@ -238,10 +238,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2357</v>
+        <v>2416</v>
       </c>
       <c r="C10">
-        <v>0.78149867057800293</v>
+        <v>0.79867768287658691</v>
       </c>
       <c r="D10"/>
     </row>
@@ -250,10 +250,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2928</v>
+        <v>2936</v>
       </c>
       <c r="C11">
-        <v>0.97082227468490601</v>
+        <v>0.97057849168777466</v>
       </c>
       <c r="D11"/>
     </row>
